--- a/biology/Zoologie/Les_Femmes_de_l'Autremonde/Les_Femmes_de_l'Autremonde.xlsx
+++ b/biology/Zoologie/Les_Femmes_de_l'Autremonde/Les_Femmes_de_l'Autremonde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Femmes_de_l%27Autremonde</t>
+          <t>Les_Femmes_de_l'Autremonde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Femmes de l'Autremonde (titre original : Women of the Otherworld) est le nom d'une série de romans écrits par Kelley Armstrong, auteur canadienne de romans fantastiques. La série, destinée aux adultes, est centrée sur des créatures fantastiques dangereuses telles que les loups-garous, sorcières, nécromanciens, démons et vampires.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Femmes_de_l%27Autremonde</t>
+          <t>Les_Femmes_de_l'Autremonde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elena Michaels est un loup-garou et la seule femelle de son espèce. Voilà qui n’est déjà pas banal. Mais en plus, elle fait tout ce qu’elle peut pour être normale. Elle voudrait une vie ordinaire, sans ses désirs inhumains, sa sauvagerie, sa faim et ses instincts de chasseuse.
 Mais la Meute fait appel à elle. Enfreignant les lois du clan, des déviants menacent de dévoiler leur existence. Elena obtempère, car la loyauté du sang ne se discute pas. Et au cours de son combat, elle découvrira sa vraie nature…
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Femmes_de_l%27Autremonde</t>
+          <t>Les_Femmes_de_l'Autremonde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Entamée en 2001, la série Les Femmes de l'Autremonde remporte un grand succès aux États-Unis qui ont fait de ces romans d'énormes best-sellers. Actuellement, la série compte treize volumes dont le dernier s'intitule Thirteen. En France, les quatre premiers tomes ont été publiés aux éditions Bragelonne de 2007 à 2009. Les éditions Milady rééditent à partir de 2010 ces quatre volumes puis publient les cinquième et sixième. En 2012, Bragelonne reprend en grand format les tomes 5 et 6 et publie le septième tome. L'histoire est adaptée pour les lecteurs français par Mélanie Fazi.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Femmes_de_l%27Autremonde</t>
+          <t>Les_Femmes_de_l'Autremonde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Romans</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Morsure, Bragelonne, 2007 ((en) Bitten, 2001)Réédité chez Milady en janvier 2010
 Capture, Bragelonne, 2008 ((en) Stolen, 2002)Réédité chez Milady en février 2010
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Femmes_de_l%27Autremonde</t>
+          <t>Les_Femmes_de_l'Autremonde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Narrateurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Morsure : Elena Michaels, un loup-garou.
 Capture : Elena Michaels.
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Les_Femmes_de_l%27Autremonde</t>
+          <t>Les_Femmes_de_l'Autremonde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,7 +681,9 @@
           <t>Nouvelles complémentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les nouvelles sont classées par ordre chronologique.
 Rebirth : comment Aaron devient un vampire.
